--- a/database/industries/darou/desobhan/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/darou/desobhan/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\desobhan\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\desobhan\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7341BEB9-F4EC-483D-B943-65A22560C42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DB0F4A-2D19-4103-8E57-68DB710917FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>6 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>9 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>9 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-30 (4)</t>
-  </si>
-  <si>
     <t>1400-10-29 (2)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-28 (2)</t>
   </si>
   <si>
-    <t>1401-10-28 (6)</t>
+    <t>1402-02-28 (7)</t>
   </si>
   <si>
     <t>1401-04-29</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-02-28</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,18 +619,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="13" width="28" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +645,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +661,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +677,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +691,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +707,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +723,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +737,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,151 +823,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>2484961</v>
+        <v>4273281</v>
       </c>
       <c r="E11" s="13">
-        <v>4273281</v>
+        <v>5921840</v>
       </c>
       <c r="F11" s="13">
-        <v>5921840</v>
+        <v>1644247</v>
       </c>
       <c r="G11" s="13">
-        <v>1644247</v>
+        <v>3448871</v>
       </c>
       <c r="H11" s="13">
-        <v>3448871</v>
+        <v>5529916</v>
       </c>
       <c r="I11" s="13">
-        <v>5529916</v>
+        <v>7232077</v>
       </c>
       <c r="J11" s="13">
-        <v>7232077</v>
+        <v>1871508</v>
       </c>
       <c r="K11" s="13">
-        <v>1871508</v>
+        <v>4916131</v>
       </c>
       <c r="L11" s="13">
-        <v>4916131</v>
+        <v>8702792</v>
       </c>
       <c r="M11" s="13">
-        <v>8702792</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>12355447</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-1122214</v>
+        <v>-1797093</v>
       </c>
       <c r="E12" s="11">
-        <v>-1797093</v>
+        <v>-2589100</v>
       </c>
       <c r="F12" s="11">
-        <v>-2589100</v>
+        <v>-778096</v>
       </c>
       <c r="G12" s="11">
-        <v>-778096</v>
+        <v>-1898200</v>
       </c>
       <c r="H12" s="11">
-        <v>-1898200</v>
+        <v>-2996198</v>
       </c>
       <c r="I12" s="11">
-        <v>-2996198</v>
+        <v>-4184126</v>
       </c>
       <c r="J12" s="11">
-        <v>-4184126</v>
+        <v>-1121670</v>
       </c>
       <c r="K12" s="11">
-        <v>-1121670</v>
+        <v>-2346467</v>
       </c>
       <c r="L12" s="11">
-        <v>-2346467</v>
+        <v>-4264772</v>
       </c>
       <c r="M12" s="11">
-        <v>-4264772</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-6286082</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>1362747</v>
+        <v>2476188</v>
       </c>
       <c r="E13" s="15">
-        <v>2476188</v>
+        <v>3332740</v>
       </c>
       <c r="F13" s="15">
-        <v>3332740</v>
+        <v>866151</v>
       </c>
       <c r="G13" s="15">
-        <v>866151</v>
+        <v>1550671</v>
       </c>
       <c r="H13" s="15">
-        <v>1550671</v>
+        <v>2533718</v>
       </c>
       <c r="I13" s="15">
-        <v>2533718</v>
+        <v>3047951</v>
       </c>
       <c r="J13" s="15">
-        <v>3047951</v>
+        <v>749838</v>
       </c>
       <c r="K13" s="15">
-        <v>749838</v>
+        <v>2569664</v>
       </c>
       <c r="L13" s="15">
-        <v>2569664</v>
+        <v>4438020</v>
       </c>
       <c r="M13" s="15">
-        <v>4438020</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6069365</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-84092</v>
+        <v>-125228</v>
       </c>
       <c r="E14" s="11">
-        <v>-125228</v>
+        <v>-193472</v>
       </c>
       <c r="F14" s="11">
-        <v>-193472</v>
+        <v>-63510</v>
       </c>
       <c r="G14" s="11">
-        <v>-63510</v>
+        <v>-148145</v>
       </c>
       <c r="H14" s="11">
-        <v>-148145</v>
+        <v>-232963</v>
       </c>
       <c r="I14" s="11">
-        <v>-232963</v>
+        <v>-437487</v>
       </c>
       <c r="J14" s="11">
-        <v>-437487</v>
+        <v>-125299</v>
       </c>
       <c r="K14" s="11">
-        <v>-125299</v>
+        <v>-332015</v>
       </c>
       <c r="L14" s="11">
-        <v>-332015</v>
+        <v>-379373</v>
       </c>
       <c r="M14" s="11">
-        <v>-379373</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-583212</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -993,268 +994,268 @@
         <v>0</v>
       </c>
       <c r="K15" s="13">
-        <v>0</v>
+        <v>-23444</v>
       </c>
       <c r="L15" s="13">
         <v>-23444</v>
       </c>
       <c r="M15" s="13">
-        <v>-23444</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-71184</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>76710</v>
+        <v>64333</v>
       </c>
       <c r="E16" s="11">
-        <v>64333</v>
+        <v>66881</v>
       </c>
       <c r="F16" s="11">
-        <v>66881</v>
+        <v>-17405</v>
       </c>
       <c r="G16" s="11">
-        <v>-17405</v>
+        <v>-6270</v>
       </c>
       <c r="H16" s="11">
-        <v>-6270</v>
+        <v>-22641</v>
       </c>
       <c r="I16" s="11">
-        <v>-22641</v>
+        <v>-25756</v>
       </c>
       <c r="J16" s="11">
-        <v>-25756</v>
+        <v>7642</v>
       </c>
       <c r="K16" s="11">
-        <v>7642</v>
+        <v>31627</v>
       </c>
       <c r="L16" s="11">
-        <v>31627</v>
+        <v>-41031</v>
       </c>
       <c r="M16" s="11">
-        <v>-41031</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-42642</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>1355365</v>
+        <v>2415293</v>
       </c>
       <c r="E17" s="15">
-        <v>2415293</v>
+        <v>3206149</v>
       </c>
       <c r="F17" s="15">
-        <v>3206149</v>
+        <v>785236</v>
       </c>
       <c r="G17" s="15">
-        <v>785236</v>
+        <v>1396256</v>
       </c>
       <c r="H17" s="15">
-        <v>1396256</v>
+        <v>2278114</v>
       </c>
       <c r="I17" s="15">
-        <v>2278114</v>
+        <v>2584708</v>
       </c>
       <c r="J17" s="15">
-        <v>2584708</v>
+        <v>632181</v>
       </c>
       <c r="K17" s="15">
-        <v>632181</v>
+        <v>2245832</v>
       </c>
       <c r="L17" s="15">
-        <v>2245832</v>
+        <v>3994172</v>
       </c>
       <c r="M17" s="15">
-        <v>3994172</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5372327</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-145919</v>
+        <v>-222601</v>
       </c>
       <c r="E18" s="11">
-        <v>-222601</v>
+        <v>-309456</v>
       </c>
       <c r="F18" s="11">
-        <v>-309456</v>
+        <v>-98675</v>
       </c>
       <c r="G18" s="11">
-        <v>-98675</v>
+        <v>-231811</v>
       </c>
       <c r="H18" s="11">
-        <v>-231811</v>
+        <v>-391871</v>
       </c>
       <c r="I18" s="11">
-        <v>-391871</v>
+        <v>-558612</v>
       </c>
       <c r="J18" s="11">
-        <v>-558612</v>
+        <v>-196809</v>
       </c>
       <c r="K18" s="11">
-        <v>-196809</v>
+        <v>-463959</v>
       </c>
       <c r="L18" s="11">
-        <v>-463959</v>
+        <v>-751893</v>
       </c>
       <c r="M18" s="11">
-        <v>-751893</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1011636</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>76781</v>
+        <v>77478</v>
       </c>
       <c r="E19" s="13">
-        <v>77478</v>
+        <v>79488</v>
       </c>
       <c r="F19" s="13">
-        <v>79488</v>
+        <v>127348</v>
       </c>
       <c r="G19" s="13">
-        <v>127348</v>
+        <v>137876</v>
       </c>
       <c r="H19" s="13">
-        <v>137876</v>
+        <v>139442</v>
       </c>
       <c r="I19" s="13">
-        <v>139442</v>
+        <v>141105</v>
       </c>
       <c r="J19" s="13">
-        <v>141105</v>
+        <v>304423</v>
       </c>
       <c r="K19" s="13">
-        <v>304423</v>
+        <v>204480</v>
       </c>
       <c r="L19" s="13">
-        <v>204480</v>
+        <v>101795</v>
       </c>
       <c r="M19" s="13">
-        <v>101795</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>96125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>1286227</v>
+        <v>2270170</v>
       </c>
       <c r="E20" s="17">
-        <v>2270170</v>
+        <v>2976181</v>
       </c>
       <c r="F20" s="17">
-        <v>2976181</v>
+        <v>813909</v>
       </c>
       <c r="G20" s="17">
-        <v>813909</v>
+        <v>1302321</v>
       </c>
       <c r="H20" s="17">
-        <v>1302321</v>
+        <v>2025685</v>
       </c>
       <c r="I20" s="17">
-        <v>2025685</v>
+        <v>2167201</v>
       </c>
       <c r="J20" s="17">
-        <v>2167201</v>
+        <v>739795</v>
       </c>
       <c r="K20" s="17">
-        <v>739795</v>
+        <v>1986353</v>
       </c>
       <c r="L20" s="17">
-        <v>1986353</v>
+        <v>3344074</v>
       </c>
       <c r="M20" s="17">
-        <v>3344074</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4456816</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-249410</v>
+        <v>-510788</v>
       </c>
       <c r="E21" s="13">
-        <v>-510788</v>
+        <v>-487114</v>
       </c>
       <c r="F21" s="13">
-        <v>-487114</v>
+        <v>-183130</v>
       </c>
       <c r="G21" s="13">
-        <v>-183130</v>
+        <v>-259977</v>
       </c>
       <c r="H21" s="13">
-        <v>-259977</v>
+        <v>-422467</v>
       </c>
       <c r="I21" s="13">
-        <v>-422467</v>
+        <v>-362758</v>
       </c>
       <c r="J21" s="13">
-        <v>-362758</v>
+        <v>-97961</v>
       </c>
       <c r="K21" s="13">
-        <v>-97961</v>
+        <v>-370018</v>
       </c>
       <c r="L21" s="13">
-        <v>-370018</v>
+        <v>-752416</v>
       </c>
       <c r="M21" s="13">
-        <v>-752416</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-656751</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>1036817</v>
+        <v>1759382</v>
       </c>
       <c r="E22" s="17">
-        <v>1759382</v>
+        <v>2489067</v>
       </c>
       <c r="F22" s="17">
-        <v>2489067</v>
+        <v>630779</v>
       </c>
       <c r="G22" s="17">
-        <v>630779</v>
+        <v>1042344</v>
       </c>
       <c r="H22" s="17">
-        <v>1042344</v>
+        <v>1603218</v>
       </c>
       <c r="I22" s="17">
-        <v>1603218</v>
+        <v>1804443</v>
       </c>
       <c r="J22" s="17">
-        <v>1804443</v>
+        <v>641834</v>
       </c>
       <c r="K22" s="17">
-        <v>641834</v>
+        <v>1616335</v>
       </c>
       <c r="L22" s="17">
-        <v>1616335</v>
+        <v>2591658</v>
       </c>
       <c r="M22" s="17">
-        <v>2591658</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3800065</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1290,79 +1291,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>1036817</v>
+        <v>1759382</v>
       </c>
       <c r="E24" s="17">
-        <v>1759382</v>
+        <v>2489067</v>
       </c>
       <c r="F24" s="17">
-        <v>2489067</v>
+        <v>630779</v>
       </c>
       <c r="G24" s="17">
-        <v>630779</v>
+        <v>1042344</v>
       </c>
       <c r="H24" s="17">
-        <v>1042344</v>
+        <v>1603218</v>
       </c>
       <c r="I24" s="17">
-        <v>1603218</v>
+        <v>1804443</v>
       </c>
       <c r="J24" s="17">
-        <v>1804443</v>
+        <v>641834</v>
       </c>
       <c r="K24" s="17">
-        <v>641834</v>
+        <v>1616335</v>
       </c>
       <c r="L24" s="17">
-        <v>1616335</v>
+        <v>2591658</v>
       </c>
       <c r="M24" s="17">
-        <v>2591658</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3800065</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>1007</v>
+        <v>1708</v>
       </c>
       <c r="E25" s="13">
-        <v>1708</v>
+        <v>1627</v>
       </c>
       <c r="F25" s="13">
-        <v>1627</v>
+        <v>474</v>
       </c>
       <c r="G25" s="13">
-        <v>474</v>
+        <v>681</v>
       </c>
       <c r="H25" s="13">
-        <v>681</v>
+        <v>1048</v>
       </c>
       <c r="I25" s="13">
-        <v>1048</v>
+        <v>743</v>
       </c>
       <c r="J25" s="13">
-        <v>1179</v>
+        <v>264</v>
       </c>
       <c r="K25" s="13">
-        <v>264</v>
+        <v>665</v>
       </c>
       <c r="L25" s="13">
-        <v>665</v>
+        <v>714</v>
       </c>
       <c r="M25" s="13">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1371,70 +1372,70 @@
         <v>1030000</v>
       </c>
       <c r="E26" s="11">
-        <v>1030000</v>
+        <v>1530000</v>
       </c>
       <c r="F26" s="11">
+        <v>1330000</v>
+      </c>
+      <c r="G26" s="11">
         <v>1530000</v>
-      </c>
-      <c r="G26" s="11">
-        <v>1330000</v>
       </c>
       <c r="H26" s="11">
         <v>1530000</v>
       </c>
       <c r="I26" s="11">
-        <v>1530000</v>
+        <v>2430000</v>
       </c>
       <c r="J26" s="11">
-        <v>1530000</v>
+        <v>2430000</v>
       </c>
       <c r="K26" s="11">
         <v>2430000</v>
       </c>
       <c r="L26" s="11">
-        <v>2430000</v>
+        <v>3630000</v>
       </c>
       <c r="M26" s="11">
         <v>3630000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>286</v>
+        <v>485</v>
       </c>
       <c r="E27" s="13">
-        <v>485</v>
+        <v>686</v>
       </c>
       <c r="F27" s="13">
-        <v>686</v>
+        <v>174</v>
       </c>
       <c r="G27" s="13">
-        <v>174</v>
+        <v>287</v>
       </c>
       <c r="H27" s="13">
-        <v>287</v>
+        <v>442</v>
       </c>
       <c r="I27" s="13">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="J27" s="13">
-        <v>497</v>
+        <v>177</v>
       </c>
       <c r="K27" s="13">
-        <v>177</v>
+        <v>445</v>
       </c>
       <c r="L27" s="13">
-        <v>445</v>
+        <v>714</v>
       </c>
       <c r="M27" s="13">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/darou/desobhan/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/darou/desobhan/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\desobhan\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\darou\desobhan\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DB0F4A-2D19-4103-8E57-68DB710917FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38DB9BA-E93A-436F-B584-C02BEB910DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
     <t>1401-10-28 (2)</t>
   </si>
   <si>
-    <t>1402-02-28 (7)</t>
+    <t>1402-03-07 (8)</t>
   </si>
   <si>
     <t>1401-04-29</t>
@@ -97,7 +97,7 @@
     <t>1401-10-28</t>
   </si>
   <si>
-    <t>1402-02-28</t>
+    <t>1402-03-07 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -892,7 +892,7 @@
         <v>-4264772</v>
       </c>
       <c r="M12" s="11">
-        <v>-6286082</v>
+        <v>-6279464</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -928,7 +928,7 @@
         <v>4438020</v>
       </c>
       <c r="M13" s="15">
-        <v>6069365</v>
+        <v>6075983</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -964,7 +964,7 @@
         <v>-379373</v>
       </c>
       <c r="M14" s="11">
-        <v>-583212</v>
+        <v>-654396</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -1000,7 +1000,7 @@
         <v>-23444</v>
       </c>
       <c r="M15" s="13">
-        <v>-71184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
@@ -1036,7 +1036,7 @@
         <v>-41031</v>
       </c>
       <c r="M16" s="11">
-        <v>-42642</v>
+        <v>75335</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -1072,7 +1072,7 @@
         <v>3994172</v>
       </c>
       <c r="M17" s="15">
-        <v>5372327</v>
+        <v>5496922</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -1144,7 +1144,7 @@
         <v>101795</v>
       </c>
       <c r="M19" s="13">
-        <v>96125</v>
+        <v>91530</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
@@ -1180,7 +1180,7 @@
         <v>3344074</v>
       </c>
       <c r="M20" s="17">
-        <v>4456816</v>
+        <v>4576816</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -1216,7 +1216,7 @@
         <v>-752416</v>
       </c>
       <c r="M21" s="13">
-        <v>-656751</v>
+        <v>-750790</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
@@ -1252,7 +1252,7 @@
         <v>2591658</v>
       </c>
       <c r="M22" s="17">
-        <v>3800065</v>
+        <v>3826026</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
@@ -1324,7 +1324,7 @@
         <v>2591658</v>
       </c>
       <c r="M24" s="17">
-        <v>3800065</v>
+        <v>3826026</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
@@ -1360,7 +1360,7 @@
         <v>714</v>
       </c>
       <c r="M25" s="13">
-        <v>1047</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
@@ -1432,7 +1432,7 @@
         <v>714</v>
       </c>
       <c r="M27" s="13">
-        <v>1047</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
